--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_162.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_162.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Quality Inn La Place</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>La Place</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70068</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70068</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_162.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_162.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1228 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r594589615-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40267</t>
+  </si>
+  <si>
+    <t>88995</t>
+  </si>
+  <si>
+    <t>594589615</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>not staying again</t>
+  </si>
+  <si>
+    <t>Well to start the place is old and dated and needs alot of repair. Had to stay since every motel around was booked up. Last minute reservation and had no choice. Should have stayed home this time or driven back and forth ! MoreShow less</t>
+  </si>
+  <si>
+    <t>Linda B, General Manager at Quality Inn LaPlace, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Well to start the place is old and dated and needs alot of repair. Had to stay since every motel around was booked up. Last minute reservation and had no choice. Should have stayed home this time or driven back and forth ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r582444389-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582444389</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>No frills, great location</t>
+  </si>
+  <si>
+    <t>Spent one night here.  Its easy on and off the Interstate.  Checked in just around midnight, night clerk was very friendly and efficient.  Room was good sized (104) King bed.  Took a dip in the pool before we left in the morning, clean, maintained.  The housekeeper was nice, offered us extra towels for the swim.  Don't have any complaints.  Its a little dated and could use some upgrades, but just to sleep and get off the road, it works !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Linda B, General Manager at Quality Inn LaPlace, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Spent one night here.  Its easy on and off the Interstate.  Checked in just around midnight, night clerk was very friendly and efficient.  Room was good sized (104) King bed.  Took a dip in the pool before we left in the morning, clean, maintained.  The housekeeper was nice, offered us extra towels for the swim.  Don't have any complaints.  Its a little dated and could use some upgrades, but just to sleep and get off the road, it works !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r578170553-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>578170553</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Low cost, No frills</t>
+  </si>
+  <si>
+    <t>Whether or not this hotel is for you is dependent upon what you want. If you have to have the bells and whistles, keep on driving.   It's old, could use refreshing, seems to have a lot of long-term residents and the internet is spotty.  The pool is out of order, and I highly recommend passing on the eggs and sausage at breakfast.HOWEVUH, the bed is comfortable, the water is hot, and the price can't be beat.  If you're looking to save money, this is for you.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Whether or not this hotel is for you is dependent upon what you want. If you have to have the bells and whistles, keep on driving.   It's old, could use refreshing, seems to have a lot of long-term residents and the internet is spotty.  The pool is out of order, and I highly recommend passing on the eggs and sausage at breakfast.HOWEVUH, the bed is comfortable, the water is hot, and the price can't be beat.  If you're looking to save money, this is for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r575906564-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575906564</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>1st time visit</t>
+  </si>
+  <si>
+    <t>Bed was comfortable. Tv was very outdated, only got 1 channel. Went to see about the breakfast and there was hardly anything available. It was a joke. The floors were sticky. The only reason we stayed there was because downtown New Orleans was booked full because of WrestleMania.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r542842852-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>542842852</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>quiet , still close to new orleans</t>
+  </si>
+  <si>
+    <t>Stayed here because of rates, easy access to main hwy to New Orleans. Was very quiet, Complimentary breakfast was good ,  Had dinner at  Pier 51  just a short distance from hotel- great local cuisine.  Hotel does not have full time restaurant.  Staff very friendly  had coin operated laundry on premises , helped to not have to wait till we got home to do laundry.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r514337999-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>514337999</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>No real problems</t>
+  </si>
+  <si>
+    <t>I believe this property was the old Holiday Inn.  All in all there was only 2 negative issues that I found.  The main and most annoying one is the very HARD WATER.  I just couldn't seem to get soap or shampoo to rinse off me even after 20 minutes of running water.  The other issue was the lack luster breakfast.  Very limited selection and quantity.  In defense of the hotel I don't think they were heavily booked and I went to breakfast rather late. On the positive side the desk clerk was super nice and informative.  She provided me a 3 page list of area restaurants and when asked pointed out her personal favorite, which, by the way was excellent!  Also the A/C was running and the room was cool when I entered.  A pleasant surprise! I'll be back in town and will rebook this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I believe this property was the old Holiday Inn.  All in all there was only 2 negative issues that I found.  The main and most annoying one is the very HARD WATER.  I just couldn't seem to get soap or shampoo to rinse off me even after 20 minutes of running water.  The other issue was the lack luster breakfast.  Very limited selection and quantity.  In defense of the hotel I don't think they were heavily booked and I went to breakfast rather late. On the positive side the desk clerk was super nice and informative.  She provided me a 3 page list of area restaurants and when asked pointed out her personal favorite, which, by the way was excellent!  Also the A/C was running and the room was cool when I entered.  A pleasant surprise! I'll be back in town and will rebook this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r474163197-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>474163197</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a week in Aug-2015. The room was well maintained, clean room, and comfortable bed, sub way restaurant was across the street. the breakfast is below average no many varieties.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>GM_LA151, General Manager at Quality Inn LaPlace, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a week in Aug-2015. The room was well maintained, clean room, and comfortable bed, sub way restaurant was across the street. the breakfast is below average no many varieties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r468316897-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468316897</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nice</t>
+  </si>
+  <si>
+    <t>We stayed at room 104 it was very nice and clean, Bed was so comfortable and clean the best sleep I ever had my husband too. That's why I gave them four, Breakfast was average there was no a lot of options. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>GM_LA151, General Manager at Quality Inn LaPlace, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at room 104 it was very nice and clean, Bed was so comfortable and clean the best sleep I ever had my husband too. That's why I gave them four, Breakfast was average there was no a lot of options. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r466808620-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466808620</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Pretty good place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting the French Quarters for my son's birthday weekend.  On arrival of the parking lot, it is apparent that this is not your conventional Quality Inn hotel....so I was a bit skeptical!   Upon entrance the staff was very pleasant, although we encountered what must have been a pretty new employee, because she had a little difficulty finding our reservation and answering some questions we had about how we were paying (not using the card we used to reserve the room).  However her fellow employee was very knowledgeable, friendly and efficient in handling our questions and requests.  
+I'm not a fan of outside entrance to rooms as opposed to inside entrances...but that's just my personal preference.  This hotel had outside entrances, but everybody else was okay with it, so we stayed.  We had double beds (which seemed very small to me) but were very comfortable with lots of pillows. Didn't like the fact that we were placed in the very last room at the end of the corridor pretty far away from the main lobby, but it turned out to be a plus as we were right by the vending and ice machines which were also on the outside of the building (which again I am not a fan of)...but it was very well lit and quiet on our end.  The room was clean as well as the bathroom was clean although a little small.  Nice size TV...Stayed here while visiting the French Quarters for my son's birthday weekend.  On arrival of the parking lot, it is apparent that this is not your conventional Quality Inn hotel....so I was a bit skeptical!   Upon entrance the staff was very pleasant, although we encountered what must have been a pretty new employee, because she had a little difficulty finding our reservation and answering some questions we had about how we were paying (not using the card we used to reserve the room).  However her fellow employee was very knowledgeable, friendly and efficient in handling our questions and requests.  I'm not a fan of outside entrance to rooms as opposed to inside entrances...but that's just my personal preference.  This hotel had outside entrances, but everybody else was okay with it, so we stayed.  We had double beds (which seemed very small to me) but were very comfortable with lots of pillows. Didn't like the fact that we were placed in the very last room at the end of the corridor pretty far away from the main lobby, but it turned out to be a plus as we were right by the vending and ice machines which were also on the outside of the building (which again I am not a fan of)...but it was very well lit and quiet on our end.  The room was clean as well as the bathroom was clean although a little small.  Nice size TV and internet worked well.  We needed extra towels later on and night staff was very friendly and accommodating when we requested extras.  Price was very reasonable and at the Choice member price with your AARP discount, it was an excellent fit for my budget.  Besides the restaurant in the hotel, there are other eating places right up the street.  It was close enough to New Orleans without all the hassle of  the traffic and hustle and bustle of being right in the city.  BONUS:  This was the daylight savings weekend, so we ended up oversleeping the next morning.....however, hotel staff was SUPER sweet in accommodating us and giving us the extra time to get ready to check out.  5 STARS FOR THE STAFF FOR BEING SO NICE!!!Overall, this was a pretty good place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>GM_LA151, General Manager at Quality Inn LaPlace, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting the French Quarters for my son's birthday weekend.  On arrival of the parking lot, it is apparent that this is not your conventional Quality Inn hotel....so I was a bit skeptical!   Upon entrance the staff was very pleasant, although we encountered what must have been a pretty new employee, because she had a little difficulty finding our reservation and answering some questions we had about how we were paying (not using the card we used to reserve the room).  However her fellow employee was very knowledgeable, friendly and efficient in handling our questions and requests.  
+I'm not a fan of outside entrance to rooms as opposed to inside entrances...but that's just my personal preference.  This hotel had outside entrances, but everybody else was okay with it, so we stayed.  We had double beds (which seemed very small to me) but were very comfortable with lots of pillows. Didn't like the fact that we were placed in the very last room at the end of the corridor pretty far away from the main lobby, but it turned out to be a plus as we were right by the vending and ice machines which were also on the outside of the building (which again I am not a fan of)...but it was very well lit and quiet on our end.  The room was clean as well as the bathroom was clean although a little small.  Nice size TV...Stayed here while visiting the French Quarters for my son's birthday weekend.  On arrival of the parking lot, it is apparent that this is not your conventional Quality Inn hotel....so I was a bit skeptical!   Upon entrance the staff was very pleasant, although we encountered what must have been a pretty new employee, because she had a little difficulty finding our reservation and answering some questions we had about how we were paying (not using the card we used to reserve the room).  However her fellow employee was very knowledgeable, friendly and efficient in handling our questions and requests.  I'm not a fan of outside entrance to rooms as opposed to inside entrances...but that's just my personal preference.  This hotel had outside entrances, but everybody else was okay with it, so we stayed.  We had double beds (which seemed very small to me) but were very comfortable with lots of pillows. Didn't like the fact that we were placed in the very last room at the end of the corridor pretty far away from the main lobby, but it turned out to be a plus as we were right by the vending and ice machines which were also on the outside of the building (which again I am not a fan of)...but it was very well lit and quiet on our end.  The room was clean as well as the bathroom was clean although a little small.  Nice size TV and internet worked well.  We needed extra towels later on and night staff was very friendly and accommodating when we requested extras.  Price was very reasonable and at the Choice member price with your AARP discount, it was an excellent fit for my budget.  Besides the restaurant in the hotel, there are other eating places right up the street.  It was close enough to New Orleans without all the hassle of  the traffic and hustle and bustle of being right in the city.  BONUS:  This was the daylight savings weekend, so we ended up oversleeping the next morning.....however, hotel staff was SUPER sweet in accommodating us and giving us the extra time to get ready to check out.  5 STARS FOR THE STAFF FOR BEING SO NICE!!!Overall, this was a pretty good place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r462253861-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>462253861</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>After reading some reviews I was hesitant to book here but decided to stay because this hotel a lot cheaper than others plus I am Choice rewards member.  Reviews that were negative were not accurate.  This is very good hotel at a decent price.  Rooms were nice. Breakfast was good.  I have no complaints.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>After reading some reviews I was hesitant to book here but decided to stay because this hotel a lot cheaper than others plus I am Choice rewards member.  Reviews that were negative were not accurate.  This is very good hotel at a decent price.  Rooms were nice. Breakfast was good.  I have no complaints.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r421135334-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>421135334</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice stay </t>
+  </si>
+  <si>
+    <t>I was excepting something else and to my pleasant surprise I was very impressed. Checking in the young lady was so nice and cheerful. My room was VERY clean and nice. Checked out the pool area very nice and the pool was crystal blue and clean. There is a bar and lounge and a place to eat don't have to drive. MS AVis who owns the bar and place to eat she made my day what a wonderful lady and her food was awesome and the staff was very nice. Next year for my conference I will be staying here again. When you past the place it may look like something else but once you step in the lobby it's nice MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Linda B, General Manager at Quality Inn LaPlace, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>I was excepting something else and to my pleasant surprise I was very impressed. Checking in the young lady was so nice and cheerful. My room was VERY clean and nice. Checked out the pool area very nice and the pool was crystal blue and clean. There is a bar and lounge and a place to eat don't have to drive. MS AVis who owns the bar and place to eat she made my day what a wonderful lady and her food was awesome and the staff was very nice. Next year for my conference I will be staying here again. When you past the place it may look like something else but once you step in the lobby it's nice More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r389297000-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>389297000</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Excellent service!</t>
+  </si>
+  <si>
+    <t>On our way to visit the French Quarter and this was a way less expensive alternative to staying down there.  The front desk was super warm and friendly upon checking in.  Room was clean, quiet and fine all around, but the parking area outside is definitely not top notch.  The overall clientele was a bit sketchy on the day we were there and I would have been a tad bit worried if I was driving a nice car vs. my old van.  But the price was reasonable and we had no problems.  Went in the pool, the water didn't smell too good, had a million kids in there earlier in the afternoon and you know...  I will say they had one of the better breakfast's I have seen at a Comfort or Quality Inn, so keep that up guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Linda B, General Manager at Quality Inn LaPlace, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>On our way to visit the French Quarter and this was a way less expensive alternative to staying down there.  The front desk was super warm and friendly upon checking in.  Room was clean, quiet and fine all around, but the parking area outside is definitely not top notch.  The overall clientele was a bit sketchy on the day we were there and I would have been a tad bit worried if I was driving a nice car vs. my old van.  But the price was reasonable and we had no problems.  Went in the pool, the water didn't smell too good, had a million kids in there earlier in the afternoon and you know...  I will say they had one of the better breakfast's I have seen at a Comfort or Quality Inn, so keep that up guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r386462839-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>386462839</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>FLEA BITES!!!</t>
+  </si>
+  <si>
+    <t>HORRIBLE experience. booked place online ad upon arrival at 730pm. place looks very old. not well lit and obvious maintenance issues with water leaking on the very back room where we park our vehicle.ask to see room first and when we did, room number off the door is absent and in place a hand written room number in sharpie. upon entering room, strong air freshener,musty smells meets you. lights turned on, paint off wall is chipped and scratched off walls and bathroom door with rust stains and lamp stands with rust stains and couch with very obvious dark stains on arm rests. air conditioner with rust marks on bottom too. THEN, while inspecting room, you feel something around your arms &amp;legs you can't see. We immediately requested for another room and was granted request a walk through the room also, same experience. By the time i went back to check on rest of family who stayed behind first room standing all this time, my daughter starting crying and showed me her right arm all swollen with lots of tiny clusters of bites and arm bleeding and itchy. Trevor the manager on site was informed and he was professional in handling situation. Kudos to him for handling a tired distressed mom. Hope they do something about this place.---JENN B.MoreShow less</t>
+  </si>
+  <si>
+    <t>HORRIBLE experience. booked place online ad upon arrival at 730pm. place looks very old. not well lit and obvious maintenance issues with water leaking on the very back room where we park our vehicle.ask to see room first and when we did, room number off the door is absent and in place a hand written room number in sharpie. upon entering room, strong air freshener,musty smells meets you. lights turned on, paint off wall is chipped and scratched off walls and bathroom door with rust stains and lamp stands with rust stains and couch with very obvious dark stains on arm rests. air conditioner with rust marks on bottom too. THEN, while inspecting room, you feel something around your arms &amp;legs you can't see. We immediately requested for another room and was granted request a walk through the room also, same experience. By the time i went back to check on rest of family who stayed behind first room standing all this time, my daughter starting crying and showed me her right arm all swollen with lots of tiny clusters of bites and arm bleeding and itchy. Trevor the manager on site was informed and he was professional in handling situation. Kudos to him for handling a tired distressed mom. Hope they do something about this place.---JENN B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r363340430-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>363340430</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>subpar</t>
+  </si>
+  <si>
+    <t>hotel is not in great shape..the day crew staff was nice the night crew female staff worker was rude. bathroom was not cleaned well. pool was dirty.  refrigerator was not cold. only plus was quiet/ bed were goodMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Linda B, General Manager at Quality Inn LaPlace, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>hotel is not in great shape..the day crew staff was nice the night crew female staff worker was rude. bathroom was not cleaned well. pool was dirty.  refrigerator was not cold. only plus was quiet/ bed were goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r360235935-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>360235935</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>My husband and I visited  this holtel while attending a friend s wedding in Laplace , La..
+It was pretty decent although I'm not a big fan of hotels  that have courtyard ( outdoor) style room as opposed to interior rooms ..
+So that being said It was just " okay " for me !
+We had a king size  bed.Checked in on a Friday .. Dave was very nice to us at the front desk in honoring our request for an early check in ..In addition I requested an upstairs room facing the inner courtyard because I read reviews on this hotel and it was suggested .We were given a room right above the pool which was nice .. We had to walk across courtyard for breakfast which was a pleasant stroll around the grassy courtyard !
+Breakfast was the main fare .. However instead of scrambled eggs we had poached eggs . Waffle flip over machine ..a pancake flip over machine .. ( a first for me ) Muffins ..sausage ..bacon and you could make your own grits or oatmeal from  packs .. The breakfast room was somewhat dated kinda gloomy looking ..However the service lady worked hard at keeping everything neat and organized !!  
+Because Laplace is a small town visitors / guests had a cordial attitude which made us feel at home .. 
+Overall my hope of finding a clean room .. With a comfortable bed...My husband and I visited  this holtel while attending a friend s wedding in Laplace , La..It was pretty decent although I'm not a big fan of hotels  that have courtyard ( outdoor) style room as opposed to interior rooms ..So that being said It was just " okay " for me !We had a king size  bed.Checked in on a Friday .. Dave was very nice to us at the front desk in honoring our request for an early check in ..In addition I requested an upstairs room facing the inner courtyard because I read reviews on this hotel and it was suggested .We were given a room right above the pool which was nice .. We had to walk across courtyard for breakfast which was a pleasant stroll around the grassy courtyard !Breakfast was the main fare .. However instead of scrambled eggs we had poached eggs . Waffle flip over machine ..a pancake flip over machine .. ( a first for me ) Muffins ..sausage ..bacon and you could make your own grits or oatmeal from  packs .. The breakfast room was somewhat dated kinda gloomy looking ..However the service lady worked hard at keeping everything neat and organized !!  Because Laplace is a small town visitors / guests had a cordial attitude which made us feel at home .. Overall my hope of finding a clean room .. With a comfortable bed and shower was achieved .. Don't know if I'd stay again since this " style "of holtel is really not my " forte".. And I wasn't thrilled with the small bathroom or non working tv.. We DID call to ask why the TV was not working the front desk person at the time seemed dismissive and told us to just use the two remote controls we told him we did that he didn't offer any other suggestions .. So we just decided to just forget the idea of watching tv since we were tired anyways.. Oh well !We did also go to the gym .. That's always our endeavor to workout on vacation.. The gym was small .. A treadmill .. ( thank goodness) a cyclingBike .. And 2 weight trainer machines .. I guess the tv on the high wall made up for the lack since the gym too was a little dated! Oh well at least we could workout huh ??All being said this is my review on this hotel .. For a reasonable price .. Decent breakfast and convenient access to I -10  interstate it was not too bad!! Of course you ll have to like this style of lodging!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>My husband and I visited  this holtel while attending a friend s wedding in Laplace , La..
+It was pretty decent although I'm not a big fan of hotels  that have courtyard ( outdoor) style room as opposed to interior rooms ..
+So that being said It was just " okay " for me !
+We had a king size  bed.Checked in on a Friday .. Dave was very nice to us at the front desk in honoring our request for an early check in ..In addition I requested an upstairs room facing the inner courtyard because I read reviews on this hotel and it was suggested .We were given a room right above the pool which was nice .. We had to walk across courtyard for breakfast which was a pleasant stroll around the grassy courtyard !
+Breakfast was the main fare .. However instead of scrambled eggs we had poached eggs . Waffle flip over machine ..a pancake flip over machine .. ( a first for me ) Muffins ..sausage ..bacon and you could make your own grits or oatmeal from  packs .. The breakfast room was somewhat dated kinda gloomy looking ..However the service lady worked hard at keeping everything neat and organized !!  
+Because Laplace is a small town visitors / guests had a cordial attitude which made us feel at home .. 
+Overall my hope of finding a clean room .. With a comfortable bed...My husband and I visited  this holtel while attending a friend s wedding in Laplace , La..It was pretty decent although I'm not a big fan of hotels  that have courtyard ( outdoor) style room as opposed to interior rooms ..So that being said It was just " okay " for me !We had a king size  bed.Checked in on a Friday .. Dave was very nice to us at the front desk in honoring our request for an early check in ..In addition I requested an upstairs room facing the inner courtyard because I read reviews on this hotel and it was suggested .We were given a room right above the pool which was nice .. We had to walk across courtyard for breakfast which was a pleasant stroll around the grassy courtyard !Breakfast was the main fare .. However instead of scrambled eggs we had poached eggs . Waffle flip over machine ..a pancake flip over machine .. ( a first for me ) Muffins ..sausage ..bacon and you could make your own grits or oatmeal from  packs .. The breakfast room was somewhat dated kinda gloomy looking ..However the service lady worked hard at keeping everything neat and organized !!  Because Laplace is a small town visitors / guests had a cordial attitude which made us feel at home .. Overall my hope of finding a clean room .. With a comfortable bed and shower was achieved .. Don't know if I'd stay again since this " style "of holtel is really not my " forte".. And I wasn't thrilled with the small bathroom or non working tv.. We DID call to ask why the TV was not working the front desk person at the time seemed dismissive and told us to just use the two remote controls we told him we did that he didn't offer any other suggestions .. So we just decided to just forget the idea of watching tv since we were tired anyways.. Oh well !We did also go to the gym .. That's always our endeavor to workout on vacation.. The gym was small .. A treadmill .. ( thank goodness) a cyclingBike .. And 2 weight trainer machines .. I guess the tv on the high wall made up for the lack since the gym too was a little dated! Oh well at least we could workout huh ??All being said this is my review on this hotel .. For a reasonable price .. Decent breakfast and convenient access to I -10  interstate it was not too bad!! Of course you ll have to like this style of lodging!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r358100311-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>358100311</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>excellent choice in the area</t>
+  </si>
+  <si>
+    <t>Although the hotel is not the most fancy hotel in the area I feel like it is an excellent choice. Nice location right off of I-10. Easy to get to NOLA. If you are going to the airport take I=61 and avoid the I-10 traffic. New televisions and beds. Price is excellent. Hotel is family owned and they do what they can to make you comfortable. One of the owners even gave me some beads to take home for my grand daughter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Linda B, General Manager at Quality Inn LaPlace, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Although the hotel is not the most fancy hotel in the area I feel like it is an excellent choice. Nice location right off of I-10. Easy to get to NOLA. If you are going to the airport take I=61 and avoid the I-10 traffic. New televisions and beds. Price is excellent. Hotel is family owned and they do what they can to make you comfortable. One of the owners even gave me some beads to take home for my grand daughter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r355966079-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>355966079</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>I WOULD LIKE TO THANK  THE FRONT DESK  N HOUSEKEEPING  FOR DOING A GREAT JOB AT THE  HOTEL.I Would given this  hotel a 5 becuase  every thing wad perfect bed comfortable  food great  wifi good too.I would tell all my friends  n family  about stay here  best choice MoreShow less</t>
+  </si>
+  <si>
+    <t>Linda B, General Manager at Quality Inn LaPlace, responded to this reviewResponded March 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2016</t>
+  </si>
+  <si>
+    <t>I WOULD LIKE TO THANK  THE FRONT DESK  N HOUSEKEEPING  FOR DOING A GREAT JOB AT THE  HOTEL.I Would given this  hotel a 5 becuase  every thing wad perfect bed comfortable  food great  wifi good too.I would tell all my friends  n family  about stay here  best choice More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r349113007-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>349113007</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Pleasant staff &amp; well clean room A plus.</t>
+  </si>
+  <si>
+    <t>Excellent place to stay. Clean rooms, Pleasant staff, good location, great price, and a hot breakfast. Made our stay a pleasant one. Would stay here again. Close enough to New Orleans at a better rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded February 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2016</t>
+  </si>
+  <si>
+    <t>Excellent place to stay. Clean rooms, Pleasant staff, good location, great price, and a hot breakfast. Made our stay a pleasant one. Would stay here again. Close enough to New Orleans at a better rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r337736571-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>337736571</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Not the Typical Quality Inn</t>
+  </si>
+  <si>
+    <t>I'm not sure what this hotel used to be, but it's not a typical Quality. It's two stories with outside stairs and entrances, surrounding a large grassy area with what would probably be a nice pool in the summer. As it was, it was a chilly walk to breakfast. The waffles were awful; other than that, it was the typical array. It was served in one corner of a huge room; the opposite corner was some type of conference area.On the positive side, the room was OK - flat screen TV, fridge and nuke, comfortable bed with lots of pillows, and the wifi was good. Very pleasant, friendly lady who checked us out in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>I'm not sure what this hotel used to be, but it's not a typical Quality. It's two stories with outside stairs and entrances, surrounding a large grassy area with what would probably be a nice pool in the summer. As it was, it was a chilly walk to breakfast. The waffles were awful; other than that, it was the typical array. It was served in one corner of a huge room; the opposite corner was some type of conference area.On the positive side, the room was OK - flat screen TV, fridge and nuke, comfortable bed with lots of pillows, and the wifi was good. Very pleasant, friendly lady who checked us out in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r319441771-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>319441771</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>SO SO</t>
+  </si>
+  <si>
+    <t>Checked in and the room keys would not work.  Room was clean; pillows not very comfy and the bath towels were very thin.  Horrible wi-fi.  The pool area needed updating.  Breakfast was free, however, was served from 5 to 8 AM to service their mostly construction crew crowd.  Both mornings we went the coffee was empty and the hot food was also empty.  Had to have the front desk lady (who was the best part of the whole stay) run down the kitchen help for us.  Very disappointed overall but it was an inexpensive place to stay while we visited New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Checked in and the room keys would not work.  Room was clean; pillows not very comfy and the bath towels were very thin.  Horrible wi-fi.  The pool area needed updating.  Breakfast was free, however, was served from 5 to 8 AM to service their mostly construction crew crowd.  Both mornings we went the coffee was empty and the hot food was also empty.  Had to have the front desk lady (who was the best part of the whole stay) run down the kitchen help for us.  Very disappointed overall but it was an inexpensive place to stay while we visited New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r310786870-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>310786870</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>weekend get away</t>
+  </si>
+  <si>
+    <t>We stay at the Quality Inn in LaPlace, on Saturday Sept. 13, 2015, it was very cleaned,  the rooms were very clean had everything we needed, beds were very comfortable. We plan on staying there again whenever we go to LaPlace.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>We stay at the Quality Inn in LaPlace, on Saturday Sept. 13, 2015, it was very cleaned,  the rooms were very clean had everything we needed, beds were very comfortable. We plan on staying there again whenever we go to LaPlace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r290907097-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>290907097</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!! HEALTH HAZARD!!!!!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!! We received chemical burns on our faces from the bedding. When I spoke with the general manager, Linda B. she told me "I'm on a lot of meds(drugs)and I don't know what you want me to do"..." I don't know what you got yourself into"..."the owner is in India". She was rude, dismissive, and unapologetic about the incident. I explained to her that we where in a double and one bed was fine but the bed my daughter and I shared you could smell a strong chemical odor on the pillows that we did not notice until we woke up. When we woke up in the morning our eyes were swollen and red, by the afternoon burns formed. They continued to worsen for days. I do not want anyone to experience what we when through. We were booked to stay two nights, needless to say we checked out first thing in the morning and moved to a hotel 30 miles out of the way just to get out of there. I have spent hours and many calls to resolve this issue and Choice hotels have not handled this well. I would stay in a port-a-potty before going back to this hotel or stay at another Choice hotel. We still do not know what we were exposure to.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!! We received chemical burns on our faces from the bedding. When I spoke with the general manager, Linda B. she told me "I'm on a lot of meds(drugs)and I don't know what you want me to do"..." I don't know what you got yourself into"..."the owner is in India". She was rude, dismissive, and unapologetic about the incident. I explained to her that we where in a double and one bed was fine but the bed my daughter and I shared you could smell a strong chemical odor on the pillows that we did not notice until we woke up. When we woke up in the morning our eyes were swollen and red, by the afternoon burns formed. They continued to worsen for days. I do not want anyone to experience what we when through. We were booked to stay two nights, needless to say we checked out first thing in the morning and moved to a hotel 30 miles out of the way just to get out of there. I have spent hours and many calls to resolve this issue and Choice hotels have not handled this well. I would stay in a port-a-potty before going back to this hotel or stay at another Choice hotel. We still do not know what we were exposure to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r289332930-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>289332930</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Phenomenal value</t>
+  </si>
+  <si>
+    <t>Great hotel for the money. Pool was a lot larger than expected. The lobby and breakfast area was huge and very nice. Huge selection of breakfast foods for the money. Would definitely stay here again.  Easily would have paid more   MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel for the money. Pool was a lot larger than expected. The lobby and breakfast area was huge and very nice. Huge selection of breakfast foods for the money. Would definitely stay here again.  Easily would have paid more   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r275422737-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>275422737</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>I LOVE THIS HOTEL!!!</t>
+  </si>
+  <si>
+    <t>This hotel has been the best one that I have ever stayed in. I highly recommend this hotel to anyone in need of one! While I was staying at the Quality Inn I was treated very well as a guest. BEST HOTEL EVER! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded May 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has been the best one that I have ever stayed in. I highly recommend this hotel to anyone in need of one! While I was staying at the Quality Inn I was treated very well as a guest. BEST HOTEL EVER! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r274957031-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>274957031</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Good buffet</t>
+  </si>
+  <si>
+    <t>Our only complaint is about the Internet. Although the front desk were polite, they never sent someone to resolve the problem. We waited and there was  never a phone call or follow up and it was already getting late, so we just left it at that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our only complaint is about the Internet. Although the front desk were polite, they never sent someone to resolve the problem. We waited and there was  never a phone call or follow up and it was already getting late, so we just left it at that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r274505051-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>274505051</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Dated property but still OK</t>
+  </si>
+  <si>
+    <t>This motel is rather old but still OK.  Room was clean but various food particles were in abundance along the walls and in the corners. Bed was comfortable, carpet was clean, bathroom clean. Window AC unit was rather noisy.  Main desk clerks were friendly, Breakfast buffet was nice, eggs, sausage, gravy, fresh fruit, yogurt, bagels, OJ, coffee, rolls etc.  Fitness center had a bike, treadmill and universal unit.  This unit would be fine for a one or two night stay and had the floor been cleaner I would have been more satisfied with the my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>This motel is rather old but still OK.  Room was clean but various food particles were in abundance along the walls and in the corners. Bed was comfortable, carpet was clean, bathroom clean. Window AC unit was rather noisy.  Main desk clerks were friendly, Breakfast buffet was nice, eggs, sausage, gravy, fresh fruit, yogurt, bagels, OJ, coffee, rolls etc.  Fitness center had a bike, treadmill and universal unit.  This unit would be fine for a one or two night stay and had the floor been cleaner I would have been more satisfied with the my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r274192517-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>274192517</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Low rating, but read on...</t>
+  </si>
+  <si>
+    <t>I actually had a good experience overall with this location.  It's in a nice quiet area and there are plenty of shops/restaurants nearby.  The beds were comfortable, and the internet speed is exceptional.
+That being said, there are a few things that need to be addressed.  The internet is good, but they have some weird firewall set up that doesn't allow access to some common websites (eg: hulu.com).  Also, there were 4 lamps in the room but only one of them had a light bulb.  There is a refrigerator but no freezer; my wife and I basically live in hotels and we like to shop for groceries rather than eating at restaurants all the time.  The lack of a freezer severely limits our food choices.
+The biggest problem, though (and the reason I gave such a poor rating) is that the shower drained so slowly that I was standing in ankle-deep water within a few minutes.  This is inexcusable, and the hotel deserves a knock at their rating for it.  Either housekeeping noticed this or they didn't.  If they noticed and chose to do nothing about it, that's a big problem.  If they did not notice it, I question how well they cleaned the tub (and in that case, the room in general).
+If not for the drain, we would stay here again without question.  However, due to this negligence we will probably try the Days Inn (next door) next...I actually had a good experience overall with this location.  It's in a nice quiet area and there are plenty of shops/restaurants nearby.  The beds were comfortable, and the internet speed is exceptional.That being said, there are a few things that need to be addressed.  The internet is good, but they have some weird firewall set up that doesn't allow access to some common websites (eg: hulu.com).  Also, there were 4 lamps in the room but only one of them had a light bulb.  There is a refrigerator but no freezer; my wife and I basically live in hotels and we like to shop for groceries rather than eating at restaurants all the time.  The lack of a freezer severely limits our food choices.The biggest problem, though (and the reason I gave such a poor rating) is that the shower drained so slowly that I was standing in ankle-deep water within a few minutes.  This is inexcusable, and the hotel deserves a knock at their rating for it.  Either housekeeping noticed this or they didn't.  If they noticed and chose to do nothing about it, that's a big problem.  If they did not notice it, I question how well they cleaned the tub (and in that case, the room in general).If not for the drain, we would stay here again without question.  However, due to this negligence we will probably try the Days Inn (next door) next time to see how they compare.MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded May 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2015</t>
+  </si>
+  <si>
+    <t>I actually had a good experience overall with this location.  It's in a nice quiet area and there are plenty of shops/restaurants nearby.  The beds were comfortable, and the internet speed is exceptional.
+That being said, there are a few things that need to be addressed.  The internet is good, but they have some weird firewall set up that doesn't allow access to some common websites (eg: hulu.com).  Also, there were 4 lamps in the room but only one of them had a light bulb.  There is a refrigerator but no freezer; my wife and I basically live in hotels and we like to shop for groceries rather than eating at restaurants all the time.  The lack of a freezer severely limits our food choices.
+The biggest problem, though (and the reason I gave such a poor rating) is that the shower drained so slowly that I was standing in ankle-deep water within a few minutes.  This is inexcusable, and the hotel deserves a knock at their rating for it.  Either housekeeping noticed this or they didn't.  If they noticed and chose to do nothing about it, that's a big problem.  If they did not notice it, I question how well they cleaned the tub (and in that case, the room in general).
+If not for the drain, we would stay here again without question.  However, due to this negligence we will probably try the Days Inn (next door) next...I actually had a good experience overall with this location.  It's in a nice quiet area and there are plenty of shops/restaurants nearby.  The beds were comfortable, and the internet speed is exceptional.That being said, there are a few things that need to be addressed.  The internet is good, but they have some weird firewall set up that doesn't allow access to some common websites (eg: hulu.com).  Also, there were 4 lamps in the room but only one of them had a light bulb.  There is a refrigerator but no freezer; my wife and I basically live in hotels and we like to shop for groceries rather than eating at restaurants all the time.  The lack of a freezer severely limits our food choices.The biggest problem, though (and the reason I gave such a poor rating) is that the shower drained so slowly that I was standing in ankle-deep water within a few minutes.  This is inexcusable, and the hotel deserves a knock at their rating for it.  Either housekeeping noticed this or they didn't.  If they noticed and chose to do nothing about it, that's a big problem.  If they did not notice it, I question how well they cleaned the tub (and in that case, the room in general).If not for the drain, we would stay here again without question.  However, due to this negligence we will probably try the Days Inn (next door) next time to see how they compare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r272752891-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>272752891</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Best price in the Area</t>
+  </si>
+  <si>
+    <t>A little pricey, but better than others in the area. The room was clean and comfortable. Desk clerk was courteous and pleasant.This is mostly a commercial area, but is convenient to New Orleans. Also fairly close to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Director of Sales at Quality Inn LaPlace, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>A little pricey, but better than others in the area. The room was clean and comfortable. Desk clerk was courteous and pleasant.This is mostly a commercial area, but is convenient to New Orleans. Also fairly close to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r264652178-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>264652178</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Customer Service is lacking at best!</t>
+  </si>
+  <si>
+    <t>I had previously stayed at this place because I had some very nice stays at other Choice Hotels before in several other states. In fact I travel over 300 days out of a year so I have learned to be flexible when it goes to hotel quality depending on lacation. So heres the rundown on this place. The reservation process for this place is at best (Oh yeah we will have a room reserved for you) each time I was told that I ask for a confirmation # and was told no need we will have you covered. The last draw for me was when I arrived back to the hotel after a weekend away at home and they had no reservation and no vacancy. The front desk clerk never made eye contact with me or even attempted to show me the least amount of hospitality by looking away from what have no doubt to be a game of solitare or updating her FB status. She only replied before I completed for my question with (nope we no rooms available. Now this shows me management at this hotel doesn't pay attention or take notice to repeat customers enough realize the cost impact or benefit of having a steady room occupied on average 5 out of 7 days week from lets say to days date till years end. That about $14000.00 that walked out the door over the lack of customer...I had previously stayed at this place because I had some very nice stays at other Choice Hotels before in several other states. In fact I travel over 300 days out of a year so I have learned to be flexible when it goes to hotel quality depending on lacation. So heres the rundown on this place. The reservation process for this place is at best (Oh yeah we will have a room reserved for you) each time I was told that I ask for a confirmation # and was told no need we will have you covered. The last draw for me was when I arrived back to the hotel after a weekend away at home and they had no reservation and no vacancy. The front desk clerk never made eye contact with me or even attempted to show me the least amount of hospitality by looking away from what have no doubt to be a game of solitare or updating her FB status. She only replied before I completed for my question with (nope we no rooms available. Now this shows me management at this hotel doesn't pay attention or take notice to repeat customers enough realize the cost impact or benefit of having a steady room occupied on average 5 out of 7 days week from lets say to days date till years end. That about $14000.00 that walked out the door over the lack of customer service at this location. FYI found a much better deal just across the street at the Best Western with great service and cleaner rooms and a standing reservation!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Front Office Manager at Quality Inn LaPlace, responded to this reviewResponded April 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2015</t>
+  </si>
+  <si>
+    <t>I had previously stayed at this place because I had some very nice stays at other Choice Hotels before in several other states. In fact I travel over 300 days out of a year so I have learned to be flexible when it goes to hotel quality depending on lacation. So heres the rundown on this place. The reservation process for this place is at best (Oh yeah we will have a room reserved for you) each time I was told that I ask for a confirmation # and was told no need we will have you covered. The last draw for me was when I arrived back to the hotel after a weekend away at home and they had no reservation and no vacancy. The front desk clerk never made eye contact with me or even attempted to show me the least amount of hospitality by looking away from what have no doubt to be a game of solitare or updating her FB status. She only replied before I completed for my question with (nope we no rooms available. Now this shows me management at this hotel doesn't pay attention or take notice to repeat customers enough realize the cost impact or benefit of having a steady room occupied on average 5 out of 7 days week from lets say to days date till years end. That about $14000.00 that walked out the door over the lack of customer...I had previously stayed at this place because I had some very nice stays at other Choice Hotels before in several other states. In fact I travel over 300 days out of a year so I have learned to be flexible when it goes to hotel quality depending on lacation. So heres the rundown on this place. The reservation process for this place is at best (Oh yeah we will have a room reserved for you) each time I was told that I ask for a confirmation # and was told no need we will have you covered. The last draw for me was when I arrived back to the hotel after a weekend away at home and they had no reservation and no vacancy. The front desk clerk never made eye contact with me or even attempted to show me the least amount of hospitality by looking away from what have no doubt to be a game of solitare or updating her FB status. She only replied before I completed for my question with (nope we no rooms available. Now this shows me management at this hotel doesn't pay attention or take notice to repeat customers enough realize the cost impact or benefit of having a steady room occupied on average 5 out of 7 days week from lets say to days date till years end. That about $14000.00 that walked out the door over the lack of customer service at this location. FYI found a much better deal just across the street at the Best Western with great service and cleaner rooms and a standing reservation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r262003497-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>262003497</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean, very quiet.</t>
+  </si>
+  <si>
+    <t>My husband and I just spent three nights at the Quality Inn in La Place, LA.  The hotel staff were professional and courteous.  Our room was clean and comfortable. The free WiFi worked well.   Breakfast was good.  We would definitely stay there again if we are ever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I just spent three nights at the Quality Inn in La Place, LA.  The hotel staff were professional and courteous.  Our room was clean and comfortable. The free WiFi worked well.   Breakfast was good.  We would definitely stay there again if we are ever in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r259590811-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>259590811</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Get up early if you want breakfast</t>
+  </si>
+  <si>
+    <t>The desk clerk who checked us in was pleasant and helpful, but it was downhill from there. It was a long haul, pulling our lugagge. The room had beenonly superficially cleaned.There was a hair on our bedsheet. Breakfast was served only from 5:00 until 8:00 and the swimming pool didn't open until 9:00. Not the worst motel experience I've ever had, but not one i'd care to repeat. It wasn't even inexpensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Manager at Quality Inn LaPlace, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>The desk clerk who checked us in was pleasant and helpful, but it was downhill from there. It was a long haul, pulling our lugagge. The room had beenonly superficially cleaned.There was a hair on our bedsheet. Breakfast was served only from 5:00 until 8:00 and the swimming pool didn't open until 9:00. Not the worst motel experience I've ever had, but not one i'd care to repeat. It wasn't even inexpensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r257739460-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257739460</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Checking in was okay...I requested a non-smoking room but didn't get one thinking it was because I have a service pet. The next person that came in apologized for the mistake and did offer me a non smoking room but I had everything moved in. I asked for a vacuum so I could get the toe/fingernails off the carpet. &lt;not mine&gt; Housekeeping was very nice. I like the outside access doors and parked in front of my room, a plus for me!! The room was comfy and I did get a good night sleep. I will be back when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Front Office Manager at Quality Inn LaPlace, responded to this reviewResponded March 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2015</t>
+  </si>
+  <si>
+    <t>Checking in was okay...I requested a non-smoking room but didn't get one thinking it was because I have a service pet. The next person that came in apologized for the mistake and did offer me a non smoking room but I had everything moved in. I asked for a vacuum so I could get the toe/fingernails off the carpet. &lt;not mine&gt; Housekeeping was very nice. I like the outside access doors and parked in front of my room, a plus for me!! The room was comfy and I did get a good night sleep. I will be back when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r252280267-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>252280267</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Average Hotel with No Internet</t>
+  </si>
+  <si>
+    <t>We stayed for a night when visiting plantation houses in Vacherie. Simply said, for the price I would expect more. The room was a bit dated but clean, bed comfortable but no internet connection. Breakfast not tempting and very limited offer before 8 o'clock. Would stay again? No.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Manager at Quality Inn LaPlace, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>We stayed for a night when visiting plantation houses in Vacherie. Simply said, for the price I would expect more. The room was a bit dated but clean, bed comfortable but no internet connection. Breakfast not tempting and very limited offer before 8 o'clock. Would stay again? No.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r245987862-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>245987862</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Great stay with a great rate !</t>
+  </si>
+  <si>
+    <t>Was able to check in with no problem .. No reservation! The folks at the front desk were amazing! Gave us a warm welcome and treated us like old friends! The room was spacious, updated, beautifully made bed, nice large bathroom, nice mattress, desk and other amenities. Would stay there again. We were late getting to breakfast the first morning but the lady overseeing the wonderful breakfast unlocked the door for us!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Manager at Quality Inn LaPlace, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Was able to check in with no problem .. No reservation! The folks at the front desk were amazing! Gave us a warm welcome and treated us like old friends! The room was spacious, updated, beautifully made bed, nice large bathroom, nice mattress, desk and other amenities. Would stay there again. We were late getting to breakfast the first morning but the lady overseeing the wonderful breakfast unlocked the door for us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r244301272-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244301272</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Extremely happy</t>
+  </si>
+  <si>
+    <t>Stayed the Quality Inn on a work trip and was very impressed wiith the front desk staff. I needed a couple couple copies of a document for the project i was working on  and they made sure I got what I needed right away and even seemed happy to help. The room was clean and smelled good upon arrival. I would highly recommend this place to any traveler. Although the weather was cool I did not venture to the pool but it was very well maintained with no organic material detected. Crystal clear water with nothig left at or near the pool to deter a would be swimmer. The manager Matthew and miss Karina were always upbeat and happy to assisst my group.MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Manager at Quality Inn LaPlace, responded to this reviewResponded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Stayed the Quality Inn on a work trip and was very impressed wiith the front desk staff. I needed a couple couple copies of a document for the project i was working on  and they made sure I got what I needed right away and even seemed happy to help. The room was clean and smelled good upon arrival. I would highly recommend this place to any traveler. Although the weather was cool I did not venture to the pool but it was very well maintained with no organic material detected. Crystal clear water with nothig left at or near the pool to deter a would be swimmer. The manager Matthew and miss Karina were always upbeat and happy to assisst my group.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r244180885-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244180885</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>Best stay and best service</t>
+  </si>
+  <si>
+    <t>Matthew, the manager, could to have been more personal.  He truly made my stay unique and I felt well taken care of.  He runs a clean, professional operation.  there are man choices in La Place, but I highly recommend you try Quality Inn and ask for Matthew!!!StephanieMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Matthew, the manager, could to have been more personal.  He truly made my stay unique and I felt well taken care of.  He runs a clean, professional operation.  there are man choices in La Place, but I highly recommend you try Quality Inn and ask for Matthew!!!StephanieMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r243868434-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>243868434</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Nice surprise</t>
+  </si>
+  <si>
+    <t>Choose this hotel at the last minute for its convenience to our location and low cost not really expecting much. The room was very clean, air conditioner worked great, no noise and safe location. The best part is that the bed was the best! We have stayed in much more expensive hotels and couldn't sleep because the beds were so uncomfortable. This was literally awesome! Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Manager at Quality Inn LaPlace, responded to this reviewResponded December 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2014</t>
+  </si>
+  <si>
+    <t>Choose this hotel at the last minute for its convenience to our location and low cost not really expecting much. The room was very clean, air conditioner worked great, no noise and safe location. The best part is that the bed was the best! We have stayed in much more expensive hotels and couldn't sleep because the beds were so uncomfortable. This was literally awesome! Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r238523841-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>238523841</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Quality stay.</t>
+  </si>
+  <si>
+    <t>Traveling to New Orleans this place fit the bill. Not expensive! Clean room! Quiet! Comfortable Bed! Breakfast was provided. Not New Orleans fare but good and wholesome. The check in was quick and the lady helpful and friendly.  She event acted she was glad we were there! The only negative was the Wi-Fi went out, but it was good while it lasted.MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, General Manager at Quality Inn LaPlace, responded to this reviewResponded November 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2014</t>
+  </si>
+  <si>
+    <t>Traveling to New Orleans this place fit the bill. Not expensive! Clean room! Quiet! Comfortable Bed! Breakfast was provided. Not New Orleans fare but good and wholesome. The check in was quick and the lady helpful and friendly.  She event acted she was glad we were there! The only negative was the Wi-Fi went out, but it was good while it lasted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r225713733-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>225713733</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>Stayed here for one night August 2014. Kind of an odd place. the room door was finicky - sometimes worked fine, sometimes had to try many times before the door would unlock/open.  The rooms looked recently renovated but the parking lot and grounds seemed unkempt. The mini fridge was propped up with folded cardboard, there was folded paper sticking out of the AC unit - to keep the vent from rattling I suppose. The telephone was missing many buttons and those present were mislabeled. this was a problem when I wanted to call the front desk about the wireless internet that was not working. After trying the room phone for several minutes I had to look up the phone number on my mobile phone and call. They reset the modem and the wireless worked for a short time before failing again. It never again work the remained of my stay. The rooms are clean (not spotless). And when I checked in and called about the internet (2) the staff was pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Manager at Quality Inn LaPlace, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for one night August 2014. Kind of an odd place. the room door was finicky - sometimes worked fine, sometimes had to try many times before the door would unlock/open.  The rooms looked recently renovated but the parking lot and grounds seemed unkempt. The mini fridge was propped up with folded cardboard, there was folded paper sticking out of the AC unit - to keep the vent from rattling I suppose. The telephone was missing many buttons and those present were mislabeled. this was a problem when I wanted to call the front desk about the wireless internet that was not working. After trying the room phone for several minutes I had to look up the phone number on my mobile phone and call. They reset the modem and the wireless worked for a short time before failing again. It never again work the remained of my stay. The rooms are clean (not spotless). And when I checked in and called about the internet (2) the staff was pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r224937083-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>224937083</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>comfortable stay</t>
+  </si>
+  <si>
+    <t>recently stayed here for an entire week for work in the area. check in was fast &amp; easy. there is a guest computer &amp; printer for your convenience. wifi is soso. my room was recently renovated. bed was big &amp; comfy. pillows...i've noticed a few choice motels are going with these square bulky pillows. i hate em, they are literally a pain in the neck.      parking was easy. access to i-10 is easy, as you're in the i-10- hwy 51 corridor. if i'm not mistaken i believe this was an old holiday inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>QILaPlaceMgmt, Manager at Quality Inn LaPlace, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>recently stayed here for an entire week for work in the area. check in was fast &amp; easy. there is a guest computer &amp; printer for your convenience. wifi is soso. my room was recently renovated. bed was big &amp; comfy. pillows...i've noticed a few choice motels are going with these square bulky pillows. i hate em, they are literally a pain in the neck.      parking was easy. access to i-10 is easy, as you're in the i-10- hwy 51 corridor. if i'm not mistaken i believe this was an old holiday inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r208564159-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>208564159</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Convenient to highway.</t>
+  </si>
+  <si>
+    <t>Stayed here on our way to Oklahoma.  found on cell phone search after stopping at Costco for gas in New Orleans.  Do not remember specifics as we were just traveling through.  Bed was comfortable, Breakfast was typical for Quality Inn. No complaints.  was convenient to I-10.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Linda B, Manager at Quality Inn LaPlace, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here on our way to Oklahoma.  found on cell phone search after stopping at Costco for gas in New Orleans.  Do not remember specifics as we were just traveling through.  Bed was comfortable, Breakfast was typical for Quality Inn. No complaints.  was convenient to I-10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r153979950-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>153979950</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Pricey for no apparent reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small rooms.   Very pricey for what u get.  Cable didn't work  took 3 calls to desk to get it repaired.   No WiFi.  Hardly any broadband in area neither.  Beds were nice.  They appeared to be doing renovations on first floor from hurricane damage from Isaac.  Everyone seemed to be upstairs.   Bathroom was nice and had a good shower head.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r136817165-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>136817165</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Old but clean</t>
+  </si>
+  <si>
+    <t>Exterior looks old but room was clean n everything workedIdeal for solo traveler who just needs a bed and bathWould not stay there IF spouse or kids along30$ cheaper then Hampton or HI expressSkip free breakfast n go to waffle house</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r126746071-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>126746071</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>A little old, but very nice</t>
+  </si>
+  <si>
+    <t>The hotel was a little old, but the rooms were very nice.  The staff was exceptional.  The price was the cheapest we could find.  I had to change types of rooms, number of rooms, etc 3 times and the staff was always friendly and promptly sent e-mails confirming the changes.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r125912191-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>125912191</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Horrible, Disguisting Place</t>
+  </si>
+  <si>
+    <t>This place is awful! My family went on a business trip with my husband to this awful place. We are usually booked in a different hotel down the street. His company pay an ddoes reservations. we pulled into the parking lot and my son  began to cry and refuse to get out. We went into our dark stairway w/oudoor entrance to the room to the smelly room. It was the same as it was in the early 80s I am sure. There wasn't internet as they say or as the card ont he TVv says. The beds had yellow stains on the sheets and pillows. I would not allow my son to bathe. When my husband did so the soap had been used since it was wet and replaced into teh package. The floor had stains. The lock was broken on the door and before 10pm we had 4-5 police cars outside our door and a few doors from where we were staying. Saying the person got drunk and went into someone elses room. As a female I didnt feel safe to even go to my car or the vending machines. It was a very horriblr experience, we were going to leave and get a room somewhere else on our own pay, but everything was booked. I would not recommend anyone going to place. They accused us of being hard to please when we contacted  the front desk. The clerk...This place is awful! My family went on a business trip with my husband to this awful place. We are usually booked in a different hotel down the street. His company pay an ddoes reservations. we pulled into the parking lot and my son  began to cry and refuse to get out. We went into our dark stairway w/oudoor entrance to the room to the smelly room. It was the same as it was in the early 80s I am sure. There wasn't internet as they say or as the card ont he TVv says. The beds had yellow stains on the sheets and pillows. I would not allow my son to bathe. When my husband did so the soap had been used since it was wet and replaced into teh package. The floor had stains. The lock was broken on the door and before 10pm we had 4-5 police cars outside our door and a few doors from where we were staying. Saying the person got drunk and went into someone elses room. As a female I didnt feel safe to even go to my car or the vending machines. It was a very horriblr experience, we were going to leave and get a room somewhere else on our own pay, but everything was booked. I would not recommend anyone going to place. They accused us of being hard to please when we contacted  the front desk. The clerk said they had never had any problems or unhappy guest. Everyone from my husband's company was a unhappy guest. We do not usually stay at 4-5 star hotels we are normal people usually a Holiday Inn express or equal, but this was far from that kind of establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>This place is awful! My family went on a business trip with my husband to this awful place. We are usually booked in a different hotel down the street. His company pay an ddoes reservations. we pulled into the parking lot and my son  began to cry and refuse to get out. We went into our dark stairway w/oudoor entrance to the room to the smelly room. It was the same as it was in the early 80s I am sure. There wasn't internet as they say or as the card ont he TVv says. The beds had yellow stains on the sheets and pillows. I would not allow my son to bathe. When my husband did so the soap had been used since it was wet and replaced into teh package. The floor had stains. The lock was broken on the door and before 10pm we had 4-5 police cars outside our door and a few doors from where we were staying. Saying the person got drunk and went into someone elses room. As a female I didnt feel safe to even go to my car or the vending machines. It was a very horriblr experience, we were going to leave and get a room somewhere else on our own pay, but everything was booked. I would not recommend anyone going to place. They accused us of being hard to please when we contacted  the front desk. The clerk...This place is awful! My family went on a business trip with my husband to this awful place. We are usually booked in a different hotel down the street. His company pay an ddoes reservations. we pulled into the parking lot and my son  began to cry and refuse to get out. We went into our dark stairway w/oudoor entrance to the room to the smelly room. It was the same as it was in the early 80s I am sure. There wasn't internet as they say or as the card ont he TVv says. The beds had yellow stains on the sheets and pillows. I would not allow my son to bathe. When my husband did so the soap had been used since it was wet and replaced into teh package. The floor had stains. The lock was broken on the door and before 10pm we had 4-5 police cars outside our door and a few doors from where we were staying. Saying the person got drunk and went into someone elses room. As a female I didnt feel safe to even go to my car or the vending machines. It was a very horriblr experience, we were going to leave and get a room somewhere else on our own pay, but everything was booked. I would not recommend anyone going to place. They accused us of being hard to please when we contacted  the front desk. The clerk said they had never had any problems or unhappy guest. Everyone from my husband's company was a unhappy guest. We do not usually stay at 4-5 star hotels we are normal people usually a Holiday Inn express or equal, but this was far from that kind of establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r36315267-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>36315267</t>
+  </si>
+  <si>
+    <t>07/31/2009</t>
+  </si>
+  <si>
+    <t>Disappointed...wouldn't come back</t>
+  </si>
+  <si>
+    <t>My friend and I were very disappointed in this motel. First , the hair dryer never worked. Second, the toilet paper holder had come out of the wall and was just hanging there. One evening we came back to the room and couldn't get back in. They had changed all of the locks during the day, and we had to get somebody to let us in the room. We were promised that there would be maid service daily, and we didn't get it at all on the day that we couldn't get into the room. The business center had only one computer for all of the guests to share. The breakfasts were o.k. but not superb as the ad led you to believe. However, throughout all of this, the staff was friendly, kind, and obliging to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>My friend and I were very disappointed in this motel. First , the hair dryer never worked. Second, the toilet paper holder had come out of the wall and was just hanging there. One evening we came back to the room and couldn't get back in. They had changed all of the locks during the day, and we had to get somebody to let us in the room. We were promised that there would be maid service daily, and we didn't get it at all on the day that we couldn't get into the room. The business center had only one computer for all of the guests to share. The breakfasts were o.k. but not superb as the ad led you to believe. However, throughout all of this, the staff was friendly, kind, and obliging to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r34161369-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>34161369</t>
+  </si>
+  <si>
+    <t>07/07/2009</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Basic hotel which is a bit tired but in the process of being revamped.Helpful, friendly staff and convenient location.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r21817547-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>21817547</t>
+  </si>
+  <si>
+    <t>11/13/2008</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night on a business trip because all the other motels in the area were full.  I reserved a King and got a double.The room smelled, the bed was itchy and I have thrown away towels that are thicker than ones here!  Not on the best side of town.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r17953476-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>17953476</t>
+  </si>
+  <si>
+    <t>07/16/2008</t>
+  </si>
+  <si>
+    <t>Gets a Passing Grade, but not Outstanding</t>
+  </si>
+  <si>
+    <t>We had a three night stay here while in town to attend my wife's class reunion and visit friends and family.  The hotel is generally clean and neat, but it is showing it's age.  Our room had some noticable stains on the carpet and foot rest, and some tile in the bathroom was in need of redoing and/or recaulking.  The room was very adequate for our needs -- had a refrigerator and microwave, which always comes in handy.  The hot breakfast buffet was hearty, if somewhat limited in its selections.
+The hotel seems to be having something of an identiy crisis -- trying to be all things to all people.  We paid what I considered to be the upper range of rates for a Quality Inn -- $85 or so for Friday and Saturday and about $100 for Sunday -- which I think implies a fairly high standard of "family oriented" lodging.  They are trying to market their restuarant as a higher end (for LaPlace anyway) place to eat, and a bird sellers show was taking place in the meeting rooms the weekend we were there.  Yet the parking lot also had a number of semis parked in it, and it appears that the operators of a nearby swamp tour are allowed to park their air boats in the parking lot every night.  Not to sound snobish, but this did create a somewhat "rough neck" and  uncomfortable atmosphere.  I didn't...We had a three night stay here while in town to attend my wife's class reunion and visit friends and family.  The hotel is generally clean and neat, but it is showing it's age.  Our room had some noticable stains on the carpet and foot rest, and some tile in the bathroom was in need of redoing and/or recaulking.  The room was very adequate for our needs -- had a refrigerator and microwave, which always comes in handy.  The hot breakfast buffet was hearty, if somewhat limited in its selections.The hotel seems to be having something of an identiy crisis -- trying to be all things to all people.  We paid what I considered to be the upper range of rates for a Quality Inn -- $85 or so for Friday and Saturday and about $100 for Sunday -- which I think implies a fairly high standard of "family oriented" lodging.  They are trying to market their restuarant as a higher end (for LaPlace anyway) place to eat, and a bird sellers show was taking place in the meeting rooms the weekend we were there.  Yet the parking lot also had a number of semis parked in it, and it appears that the operators of a nearby swamp tour are allowed to park their air boats in the parking lot every night.  Not to sound snobish, but this did create a somewhat "rough neck" and  uncomfortable atmosphere.  I didn't want my wife going to the parking lot by herself.Generally we're not too picky, and indeed we were okay staying here.  But next time we might try the Hampton Inn down the road or the new Holiday Inn under construction just to be able to compare.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>We had a three night stay here while in town to attend my wife's class reunion and visit friends and family.  The hotel is generally clean and neat, but it is showing it's age.  Our room had some noticable stains on the carpet and foot rest, and some tile in the bathroom was in need of redoing and/or recaulking.  The room was very adequate for our needs -- had a refrigerator and microwave, which always comes in handy.  The hot breakfast buffet was hearty, if somewhat limited in its selections.
+The hotel seems to be having something of an identiy crisis -- trying to be all things to all people.  We paid what I considered to be the upper range of rates for a Quality Inn -- $85 or so for Friday and Saturday and about $100 for Sunday -- which I think implies a fairly high standard of "family oriented" lodging.  They are trying to market their restuarant as a higher end (for LaPlace anyway) place to eat, and a bird sellers show was taking place in the meeting rooms the weekend we were there.  Yet the parking lot also had a number of semis parked in it, and it appears that the operators of a nearby swamp tour are allowed to park their air boats in the parking lot every night.  Not to sound snobish, but this did create a somewhat "rough neck" and  uncomfortable atmosphere.  I didn't...We had a three night stay here while in town to attend my wife's class reunion and visit friends and family.  The hotel is generally clean and neat, but it is showing it's age.  Our room had some noticable stains on the carpet and foot rest, and some tile in the bathroom was in need of redoing and/or recaulking.  The room was very adequate for our needs -- had a refrigerator and microwave, which always comes in handy.  The hot breakfast buffet was hearty, if somewhat limited in its selections.The hotel seems to be having something of an identiy crisis -- trying to be all things to all people.  We paid what I considered to be the upper range of rates for a Quality Inn -- $85 or so for Friday and Saturday and about $100 for Sunday -- which I think implies a fairly high standard of "family oriented" lodging.  They are trying to market their restuarant as a higher end (for LaPlace anyway) place to eat, and a bird sellers show was taking place in the meeting rooms the weekend we were there.  Yet the parking lot also had a number of semis parked in it, and it appears that the operators of a nearby swamp tour are allowed to park their air boats in the parking lot every night.  Not to sound snobish, but this did create a somewhat "rough neck" and  uncomfortable atmosphere.  I didn't want my wife going to the parking lot by herself.Generally we're not too picky, and indeed we were okay staying here.  But next time we might try the Hampton Inn down the road or the new Holiday Inn under construction just to be able to compare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r14532526-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>14532526</t>
+  </si>
+  <si>
+    <t>03/25/2008</t>
+  </si>
+  <si>
+    <t>Great Hotel to stay with work or fun</t>
+  </si>
+  <si>
+    <t>Great hotel. Friendly staff at hotel, good restaurant to eat, and fun atmosphere at night.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d88995-r4050472-Quality_Inn_LaPlace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>4050472</t>
+  </si>
+  <si>
+    <t>10/24/2005</t>
+  </si>
+  <si>
+    <t>Do not stay Here</t>
+  </si>
+  <si>
+    <t>I used to stay here all the time. There was a sweet desk clerk named Renee who would do anything to make your stay comfortable. I knew she would quit sooner or later because I saw both managers yelling at her and doing other verbally abusive things. Another desk clerk, Alice was treated like gold and she was very rude and could care less about anyone else. She was always on the phone and she had a bad attitude overall. Of course, Alice was promoted and service went down. I will never stay there again.</t>
+  </si>
+  <si>
+    <t>July 2000</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +1783,3323 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>213</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>223</v>
+      </c>
+      <c r="X26" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>213</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>276</v>
+      </c>
+      <c r="X32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>285</v>
+      </c>
+      <c r="X33" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J34" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" t="s">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s">
+        <v>292</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X34" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>302</v>
+      </c>
+      <c r="O35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>303</v>
+      </c>
+      <c r="X35" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>311</v>
+      </c>
+      <c r="X36" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>319</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>311</v>
+      </c>
+      <c r="X37" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>302</v>
+      </c>
+      <c r="O38" t="s">
+        <v>213</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>326</v>
+      </c>
+      <c r="X38" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>319</v>
+      </c>
+      <c r="O39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>343</v>
+      </c>
+      <c r="X40" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>351</v>
+      </c>
+      <c r="X41" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>359</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K44" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s">
+        <v>372</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>373</v>
+      </c>
+      <c r="O44" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>377</v>
+      </c>
+      <c r="L45" t="s">
+        <v>378</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>379</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>392</v>
+      </c>
+      <c r="O47" t="s">
+        <v>213</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>399</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
+        <v>402</v>
+      </c>
+      <c r="K49" t="s">
+        <v>403</v>
+      </c>
+      <c r="L49" t="s">
+        <v>404</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>405</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>414</v>
+      </c>
+      <c r="J51" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" t="s">
+        <v>416</v>
+      </c>
+      <c r="L51" t="s">
+        <v>417</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>418</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>419</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>420</v>
+      </c>
+      <c r="J52" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" t="s">
+        <v>422</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>424</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +5122,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>426</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>427</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>428</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>429</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +5154,31 @@
         <v>1011</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>435</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>436</v>
       </c>
       <c r="E2" t="n">
         <v>70068</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>437</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
